--- a/preprocess/场地处理能力.xlsx
+++ b/preprocess/场地处理能力.xlsx
@@ -446,813 +446,651 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>DC1</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>2190</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DC10</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
+        <v>39873</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>43112783</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>226800525</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>50764637</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>425787</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3297411</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>192399319</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>71361812</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
         <v>266425110</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>DC11</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
         <v>1486273</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>DC12</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
         <v>7347247</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>DC13</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
         <v>33747</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>DC14</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
         <v>264944907</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>DC15</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
         <v>33806371</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>DC16</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
         <v>986705</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>DC17</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
         <v>72008528</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>DC18</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
         <v>331296</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>DC19</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
         <v>67026238</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>DC2</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>39873</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>DC20</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
         <v>43566203</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>DC21</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
         <v>45515653</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>DC22</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
         <v>59866426</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>DC23</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
         <v>78955756</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>DC24</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
         <v>16410</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>DC25</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
         <v>54293962</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>DC26</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
         <v>17031116</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>DC27</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
         <v>15942256</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>DC28</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
         <v>25537739</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>DC29</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
         <v>213080</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>DC3</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>43112783</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>DC30</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
         <v>13106529</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>DC31</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
         <v>2599646</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>DC32</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
         <v>1675788</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>DC33</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
         <v>299002</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>DC34</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
         <v>1039193</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>DC35</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
         <v>16730349</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>DC36</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
         <v>75074181</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>DC37</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
         <v>387260</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>DC38</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
         <v>29306417</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>DC39</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
         <v>9973</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>DC4</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>226800525</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>DC40</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
         <v>6231772</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>DC41</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
         <v>2823792</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>DC42</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
         <v>5060099</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>DC43</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
         <v>8829321</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>DC44</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
         <v>28619441</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>DC45</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
         <v>2233717</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>DC46</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
         <v>17779363</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>DC47</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
         <v>20423233</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>DC48</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
         <v>10317611</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>DC49</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
         <v>1251149</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>DC5</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>50764637</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>DC50</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
         <v>6985416</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>DC51</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
         <v>31190243</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>DC52</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
         <v>380684</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>DC53</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
         <v>676553</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>DC54</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
         <v>67581</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>DC55</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
         <v>563507</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>DC56</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
         <v>1108334</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>DC57</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
         <v>123299</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>DC58</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
         <v>3753845</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>DC59</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
         <v>1712004</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>DC6</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>425787</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>DC60</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
         <v>3627960</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>DC61</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
         <v>38521</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>DC62</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
         <v>98628311</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>DC63</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
         <v>10585</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>DC64</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
         <v>26204532</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>DC65</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
         <v>13784531</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>DC66</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
         <v>81837</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>DC67</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
         <v>122201</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>DC68</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
         <v>665051</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>DC69</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
         <v>212281</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>DC7</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>3297411</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>DC70</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
         <v>13081338</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>DC71</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
         <v>2927955</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>DC72</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
         <v>2097005</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>DC73</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
         <v>15705217</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>DC74</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
         <v>141584</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>DC75</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>1460</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>DC76</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>51422</v>
-      </c>
-    </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>DC77</t>
-        </is>
+      <c r="A76" t="n">
+        <v>75</v>
       </c>
       <c r="B76" t="n">
         <v>1460</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>DC78</t>
-        </is>
+      <c r="A77" t="n">
+        <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>5548</v>
+        <v>51422</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>DC79</t>
-        </is>
+      <c r="A78" t="n">
+        <v>77</v>
       </c>
       <c r="B78" t="n">
         <v>1460</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>DC8</t>
-        </is>
+      <c r="A79" t="n">
+        <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>192399319</v>
+        <v>5548</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>DC80</t>
-        </is>
+      <c r="A80" t="n">
+        <v>79</v>
       </c>
       <c r="B80" t="n">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
         <v>730</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>DC81</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
         <v>4557073</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>DC9</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>71361812</v>
       </c>
     </row>
   </sheetData>
